--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_14-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_14-50.xlsx
@@ -164,7 +164,7 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-1:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -1550,11 +1547,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1596,7 +1593,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -1614,7 +1611,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1622,7 +1619,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1640,7 +1637,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1648,7 +1645,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1666,7 +1663,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1674,7 +1671,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1692,7 +1689,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1700,7 +1697,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="40" ht="26.25" customHeight="1">
       <c r="K40" s="11">
-        <v>3803.3699999999999</v>
+        <v>3807.3699999999999</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -1723,19 +1720,19 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c t="s" r="A41" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c t="s" r="F41" s="13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="14"/>
       <c t="s" r="I41" s="15">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
